--- a/ABBV.xlsx
+++ b/ABBV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F6F561-D141-41B1-A601-C05EB52716D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E570A9-9BFC-4680-9896-E07E6637F085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23565" yWindow="2340" windowWidth="21000" windowHeight="17070" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38980" yWindow="1680" windowWidth="26400" windowHeight="18030" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="4" r:id="rId1"/>
@@ -255,7 +255,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="669">
   <si>
     <t>Humira</t>
   </si>
@@ -2253,6 +2253,15 @@
   </si>
   <si>
     <t>1,422</t>
+  </si>
+  <si>
+    <t>GUB014295</t>
+  </si>
+  <si>
+    <t>T2D</t>
+  </si>
+  <si>
+    <t>amylin analog</t>
   </si>
 </sst>
 </file>
@@ -2582,7 +2591,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2844,6 +2853,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3448,19 +3461,19 @@
       <selection pane="bottomRight" activeCell="B25" sqref="B25:E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="27"/>
+    <col min="2" max="2" width="18.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="B2" s="27" t="s">
         <v>146</v>
@@ -3478,25 +3491,25 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
       <c r="B3" s="27" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="20"/>
       <c r="B4" s="27" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="20"/>
       <c r="B5" s="27" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="20"/>
       <c r="B6" s="41" t="s">
         <v>198</v>
@@ -3514,13 +3527,13 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="20"/>
       <c r="B7" s="27" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="27" t="s">
         <v>2</v>
       </c>
@@ -3528,22 +3541,22 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="27" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="37" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="27" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="41" t="s">
         <v>38</v>
       </c>
@@ -3551,7 +3564,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="41" t="s">
         <v>190</v>
       </c>
@@ -3559,7 +3572,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C18" s="27" t="s">
         <v>28</v>
       </c>
@@ -3570,7 +3583,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="37" t="s">
         <v>170</v>
       </c>
@@ -3584,7 +3597,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="37" t="s">
         <v>29</v>
       </c>
@@ -3595,7 +3608,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="41" t="s">
         <v>69</v>
       </c>
@@ -3606,7 +3619,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="41" t="s">
         <v>67</v>
       </c>
@@ -3617,7 +3630,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="83" t="s">
         <v>354</v>
       </c>
@@ -3645,24 +3658,24 @@
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="111" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="111" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="111"/>
+    <col min="1" max="1" width="5.453125" style="111" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" style="111" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="111"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="111" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="111" t="s">
         <v>189</v>
       </c>
@@ -3670,7 +3683,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="111" t="s">
         <v>27</v>
       </c>
@@ -3678,7 +3691,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="111" t="s">
         <v>36</v>
       </c>
@@ -3686,7 +3699,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="111" t="s">
         <v>33</v>
       </c>
@@ -3694,17 +3707,17 @@
         <v>567</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="111" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="C8" s="86" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" s="111" t="s">
         <v>563</v>
       </c>
@@ -3712,7 +3725,7 @@
         <v>-13.5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" s="111" t="s">
         <v>564</v>
       </c>
@@ -3720,7 +3733,7 @@
         <v>-14.7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" s="111" t="s">
         <v>565</v>
       </c>
@@ -3728,12 +3741,12 @@
         <v>-16.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="C13" s="86" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" s="111" t="s">
         <v>563</v>
       </c>
@@ -3741,7 +3754,7 @@
         <v>-16.100000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15" s="111" t="s">
         <v>564</v>
       </c>
@@ -3749,7 +3762,7 @@
         <v>-18.5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C16" s="111" t="s">
         <v>565</v>
       </c>
@@ -3771,19 +3784,19 @@
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="111" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="111" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="111"/>
+    <col min="1" max="1" width="5.453125" style="111" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" style="111" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="111"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="111" t="s">
         <v>146</v>
       </c>
@@ -3791,7 +3804,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="111" t="s">
         <v>189</v>
       </c>
@@ -3799,7 +3812,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="111" t="s">
         <v>27</v>
       </c>
@@ -3807,7 +3820,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="111" t="s">
         <v>286</v>
       </c>
@@ -3815,7 +3828,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="111" t="s">
         <v>185</v>
       </c>
@@ -3823,7 +3836,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="111" t="s">
         <v>472</v>
       </c>
@@ -3831,7 +3844,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="111" t="s">
         <v>36</v>
       </c>
@@ -3839,83 +3852,83 @@
         <v>308</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="111" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="C10" s="86" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" s="111" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" s="111" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="C13" s="115" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="C14" s="115"/>
       <c r="D14" s="111" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="C16" s="86" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="111" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:4" ht="13" x14ac:dyDescent="0.3">
       <c r="D19" s="86" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D20" s="111" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:4" ht="13" x14ac:dyDescent="0.3">
       <c r="C22" s="86" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C23" s="111" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C25" s="111" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C26" s="111" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C27" s="111" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C28" s="111" t="s">
         <v>537</v>
       </c>
@@ -3934,19 +3947,19 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="104" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="104" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="104"/>
+    <col min="2" max="2" width="12.81640625" style="104" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="104"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="104" t="s">
         <v>146</v>
       </c>
@@ -3954,7 +3967,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="104" t="s">
         <v>189</v>
       </c>
@@ -3962,7 +3975,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="104" t="s">
         <v>185</v>
       </c>
@@ -3970,7 +3983,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="104" t="s">
         <v>27</v>
       </c>
@@ -3978,7 +3991,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="111" t="s">
         <v>465</v>
       </c>
@@ -4000,19 +4013,19 @@
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="104" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="104" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="104"/>
+    <col min="2" max="2" width="12.81640625" style="104" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="104"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="104" t="s">
         <v>146</v>
       </c>
@@ -4020,7 +4033,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="104" t="s">
         <v>189</v>
       </c>
@@ -4028,7 +4041,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="104" t="s">
         <v>27</v>
       </c>
@@ -4036,7 +4049,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="104" t="s">
         <v>33</v>
       </c>
@@ -4044,7 +4057,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="104" t="s">
         <v>36</v>
       </c>
@@ -4052,7 +4065,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="104" t="s">
         <v>185</v>
       </c>
@@ -4060,7 +4073,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="104" t="s">
         <v>465</v>
       </c>
@@ -4068,7 +4081,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="104" t="s">
         <v>227</v>
       </c>
@@ -4087,25 +4100,25 @@
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="102" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="102" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="102" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="102"/>
+    <col min="1" max="1" width="5.453125" style="102" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" style="102" customWidth="1"/>
+    <col min="3" max="3" width="21.453125" style="102" customWidth="1"/>
+    <col min="4" max="16384" width="9.1796875" style="102"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="102" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="102" t="s">
         <v>189</v>
       </c>
@@ -4113,7 +4126,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="102" t="s">
         <v>27</v>
       </c>
@@ -4121,7 +4134,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="111" t="s">
         <v>472</v>
       </c>
@@ -4129,7 +4142,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="111" t="s">
         <v>465</v>
       </c>
@@ -4137,7 +4150,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="111" t="s">
         <v>288</v>
       </c>
@@ -4145,59 +4158,59 @@
         <v>524</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="102" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C9" s="86" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" s="102" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" s="111" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C13" s="86" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" s="111" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" s="111" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C18" s="86" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C19" s="86"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C20" s="86"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C21" s="86"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C22" s="86"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="111" t="s">
         <v>525</v>
       </c>
@@ -4216,24 +4229,24 @@
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="104" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="104" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="104"/>
+    <col min="1" max="1" width="5.453125" style="104" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" style="104" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="104"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="104" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="104" t="s">
         <v>189</v>
       </c>
@@ -4241,7 +4254,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="104" t="s">
         <v>27</v>
       </c>
@@ -4249,7 +4262,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="104" t="s">
         <v>465</v>
       </c>
@@ -4257,7 +4270,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="111" t="s">
         <v>33</v>
       </c>
@@ -4265,23 +4278,23 @@
         <v>631</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="111"/>
       <c r="C7" s="111" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="104" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C9" s="86" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C14" s="86" t="s">
         <v>499</v>
       </c>
@@ -4296,29 +4309,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L126"/>
+  <dimension ref="A1:L127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="2.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="111"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>26</v>
       </c>
@@ -4344,10 +4357,10 @@
         <v>48</v>
       </c>
       <c r="K2" s="14">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="21" t="s">
         <v>73</v>
       </c>
@@ -4379,7 +4392,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="21" t="s">
         <v>208</v>
       </c>
@@ -4406,11 +4419,11 @@
       </c>
       <c r="K4" s="15">
         <f>+K3*K2</f>
-        <v>310100</v>
+        <v>366804</v>
       </c>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="21" t="s">
         <v>159</v>
       </c>
@@ -4442,7 +4455,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="21" t="s">
         <v>162</v>
       </c>
@@ -4474,7 +4487,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="21" t="s">
         <v>178</v>
       </c>
@@ -4501,10 +4514,10 @@
       </c>
       <c r="K7" s="15">
         <f>+K4-K5+K6</f>
-        <v>374526</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+        <v>431230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="21" t="s">
         <v>163</v>
       </c>
@@ -4527,7 +4540,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="61" t="s">
         <v>269</v>
       </c>
@@ -4546,7 +4559,7 @@
       </c>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="61" t="s">
         <v>273</v>
       </c>
@@ -4565,7 +4578,7 @@
       </c>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="77" t="s">
         <v>6</v>
       </c>
@@ -4582,7 +4595,7 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="61" t="s">
         <v>277</v>
       </c>
@@ -4597,7 +4610,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="61" t="s">
         <v>276</v>
       </c>
@@ -4613,7 +4626,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="61" t="s">
         <v>264</v>
       </c>
@@ -4633,7 +4646,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="39" t="s">
         <v>206</v>
       </c>
@@ -4655,7 +4668,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="39" t="s">
         <v>184</v>
       </c>
@@ -4675,7 +4688,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="21" t="s">
         <v>329</v>
       </c>
@@ -4695,7 +4708,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="39" t="s">
         <v>210</v>
       </c>
@@ -4713,7 +4726,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="21" t="s">
         <v>330</v>
       </c>
@@ -4737,7 +4750,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="116" t="s">
         <v>625</v>
       </c>
@@ -4755,7 +4768,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="39" t="s">
         <v>212</v>
       </c>
@@ -4771,7 +4784,7 @@
       <c r="H21" s="11"/>
       <c r="J21" s="88"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="21" t="s">
         <v>481</v>
       </c>
@@ -4790,7 +4803,7 @@
       <c r="G22" s="9"/>
       <c r="H22" s="11"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="39" t="s">
         <v>209</v>
       </c>
@@ -4805,7 +4818,7 @@
       </c>
       <c r="H23" s="11"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7" t="s">
@@ -4816,7 +4829,7 @@
       <c r="G24" s="7"/>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="21" t="s">
         <v>310</v>
       </c>
@@ -4835,7 +4848,7 @@
       </c>
       <c r="H25" s="11"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="108" t="s">
         <v>503</v>
       </c>
@@ -4852,7 +4865,7 @@
       <c r="G26" s="9"/>
       <c r="H26" s="11"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="21" t="s">
         <v>461</v>
       </c>
@@ -4871,7 +4884,7 @@
       </c>
       <c r="H27" s="11"/>
     </row>
-    <row r="28" spans="2:10" s="111" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10" s="111" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B28" s="120" t="s">
         <v>340</v>
       </c>
@@ -4890,7 +4903,7 @@
       </c>
       <c r="H28" s="119"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="66" t="s">
         <v>312</v>
       </c>
@@ -4905,7 +4918,7 @@
       <c r="G29" s="9"/>
       <c r="H29" s="11"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="116" t="s">
         <v>607</v>
       </c>
@@ -4922,7 +4935,7 @@
       <c r="G30" s="9"/>
       <c r="H30" s="11"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="116" t="s">
         <v>546</v>
       </c>
@@ -4943,7 +4956,7 @@
       </c>
       <c r="H31" s="11"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="83" t="s">
         <v>382</v>
       </c>
@@ -4962,7 +4975,7 @@
       <c r="G32" s="9"/>
       <c r="H32" s="11"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="35" t="s">
         <v>167</v>
       </c>
@@ -4981,7 +4994,7 @@
       <c r="G33" s="9"/>
       <c r="H33" s="11"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="35" t="s">
         <v>174</v>
       </c>
@@ -5000,7 +5013,7 @@
       <c r="G34" s="9"/>
       <c r="H34" s="11"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="75" t="s">
         <v>319</v>
       </c>
@@ -5019,7 +5032,7 @@
       <c r="G35" s="9"/>
       <c r="H35" s="11"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="83" t="s">
         <v>368</v>
       </c>
@@ -5034,7 +5047,7 @@
       <c r="G36" s="9"/>
       <c r="H36" s="11"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="116" t="s">
         <v>575</v>
       </c>
@@ -5051,7 +5064,7 @@
       <c r="G37" s="9"/>
       <c r="H37" s="11"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="39" t="s">
         <v>180</v>
       </c>
@@ -5070,7 +5083,7 @@
       <c r="G38" s="9"/>
       <c r="H38" s="11"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="39" t="s">
         <v>192</v>
       </c>
@@ -5089,7 +5102,7 @@
       <c r="G39" s="9"/>
       <c r="H39" s="11"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="39" t="s">
         <v>223</v>
       </c>
@@ -5108,7 +5121,7 @@
       <c r="G40" s="9"/>
       <c r="H40" s="11"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="116" t="s">
         <v>585</v>
       </c>
@@ -5127,7 +5140,7 @@
       <c r="G41" s="9"/>
       <c r="H41" s="11"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="116" t="s">
         <v>578</v>
       </c>
@@ -5146,7 +5159,7 @@
       <c r="G42" s="9"/>
       <c r="H42" s="11"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="83" t="s">
         <v>369</v>
       </c>
@@ -5165,7 +5178,7 @@
       <c r="G43" s="9"/>
       <c r="H43" s="11"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="83" t="s">
         <v>371</v>
       </c>
@@ -5182,7 +5195,7 @@
       <c r="G44" s="9"/>
       <c r="H44" s="11"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="91" t="s">
         <v>391</v>
       </c>
@@ -5199,7 +5212,7 @@
       <c r="G45" s="9"/>
       <c r="H45" s="11"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="91" t="s">
         <v>394</v>
       </c>
@@ -5216,7 +5229,7 @@
       <c r="G46" s="9"/>
       <c r="H46" s="11"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="91" t="s">
         <v>398</v>
       </c>
@@ -5233,7 +5246,7 @@
       <c r="G47" s="9"/>
       <c r="H47" s="11"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="116" t="s">
         <v>608</v>
       </c>
@@ -5250,7 +5263,7 @@
       <c r="G48" s="9"/>
       <c r="H48" s="11"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="83" t="s">
         <v>352</v>
       </c>
@@ -5267,7 +5280,7 @@
       <c r="G49" s="9"/>
       <c r="H49" s="11"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="108" t="s">
         <v>475</v>
       </c>
@@ -5286,7 +5299,7 @@
       <c r="G50" s="9"/>
       <c r="H50" s="11"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="83" t="s">
         <v>356</v>
       </c>
@@ -5305,7 +5318,7 @@
       <c r="G51" s="9"/>
       <c r="H51" s="11"/>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="116" t="s">
         <v>591</v>
       </c>
@@ -5322,7 +5335,7 @@
       <c r="G52" s="9"/>
       <c r="H52" s="11"/>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="116" t="s">
         <v>590</v>
       </c>
@@ -5339,7 +5352,7 @@
       <c r="G53" s="9"/>
       <c r="H53" s="11"/>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="116" t="s">
         <v>587</v>
       </c>
@@ -5358,7 +5371,7 @@
       <c r="G54" s="9"/>
       <c r="H54" s="11"/>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="83" t="s">
         <v>362</v>
       </c>
@@ -5377,7 +5390,7 @@
       <c r="G55" s="9"/>
       <c r="H55" s="11"/>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="83" t="s">
         <v>365</v>
       </c>
@@ -5394,7 +5407,7 @@
       <c r="G56" s="9"/>
       <c r="H56" s="11"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="123" t="s">
         <v>656</v>
       </c>
@@ -5413,7 +5426,7 @@
       <c r="G57" s="9"/>
       <c r="H57" s="11"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="83" t="s">
         <v>348</v>
       </c>
@@ -5432,7 +5445,7 @@
       <c r="G58" s="9"/>
       <c r="H58" s="11"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="83" t="s">
         <v>349</v>
       </c>
@@ -5451,7 +5464,7 @@
       <c r="G59" s="9"/>
       <c r="H59" s="11"/>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="83" t="s">
         <v>346</v>
       </c>
@@ -5470,7 +5483,7 @@
       <c r="G60" s="9"/>
       <c r="H60" s="11"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="4" t="s">
         <v>40</v>
       </c>
@@ -5483,7 +5496,7 @@
       <c r="G61" s="9"/>
       <c r="H61" s="11"/>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" s="116" t="s">
         <v>602</v>
       </c>
@@ -5500,7 +5513,7 @@
       <c r="G62" s="9"/>
       <c r="H62" s="11"/>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="123" t="s">
         <v>657</v>
       </c>
@@ -5515,7 +5528,7 @@
       </c>
       <c r="H63" s="11"/>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="116" t="s">
         <v>605</v>
       </c>
@@ -5532,7 +5545,7 @@
       <c r="G64" s="9"/>
       <c r="H64" s="11"/>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" s="123" t="s">
         <v>652</v>
       </c>
@@ -5545,69 +5558,67 @@
       <c r="G65" s="9"/>
       <c r="H65" s="11"/>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B66" s="116" t="s">
-        <v>600</v>
-      </c>
-      <c r="C66" s="114" t="s">
-        <v>601</v>
-      </c>
-      <c r="D66" s="114" t="s">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="128" t="s">
+        <v>666</v>
+      </c>
+      <c r="C66" s="129" t="s">
+        <v>667</v>
+      </c>
+      <c r="D66" s="129" t="s">
         <v>182</v>
       </c>
-      <c r="E66" s="92"/>
-      <c r="F66" s="9"/>
+      <c r="E66" s="129" t="s">
+        <v>668</v>
+      </c>
+      <c r="F66" s="114"/>
       <c r="G66" s="9"/>
       <c r="H66" s="11"/>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B67" s="91" t="s">
-        <v>405</v>
-      </c>
-      <c r="C67" s="92" t="s">
-        <v>407</v>
-      </c>
-      <c r="D67" s="92" t="s">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B67" s="116" t="s">
+        <v>600</v>
+      </c>
+      <c r="C67" s="114" t="s">
+        <v>601</v>
+      </c>
+      <c r="D67" s="114" t="s">
         <v>182</v>
       </c>
-      <c r="E67" s="92" t="s">
-        <v>406</v>
-      </c>
+      <c r="E67" s="92"/>
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
       <c r="H67" s="11"/>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B68" s="61" t="s">
-        <v>281</v>
-      </c>
-      <c r="C68" s="57" t="s">
-        <v>282</v>
-      </c>
-      <c r="D68" s="57" t="s">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B68" s="91" t="s">
+        <v>405</v>
+      </c>
+      <c r="C68" s="92" t="s">
+        <v>407</v>
+      </c>
+      <c r="D68" s="92" t="s">
         <v>182</v>
       </c>
-      <c r="E68" s="57" t="s">
-        <v>283</v>
-      </c>
-      <c r="F68" s="10">
-        <v>1</v>
-      </c>
+      <c r="E68" s="92" t="s">
+        <v>406</v>
+      </c>
+      <c r="F68" s="9"/>
       <c r="G68" s="9"/>
       <c r="H68" s="11"/>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B69" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>43</v>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B69" s="61" t="s">
+        <v>281</v>
+      </c>
+      <c r="C69" s="57" t="s">
+        <v>282</v>
+      </c>
+      <c r="D69" s="57" t="s">
+        <v>182</v>
+      </c>
+      <c r="E69" s="57" t="s">
+        <v>283</v>
       </c>
       <c r="F69" s="10">
         <v>1</v>
@@ -5615,18 +5626,18 @@
       <c r="G69" s="9"/>
       <c r="H69" s="11"/>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B70" s="116" t="s">
-        <v>613</v>
-      </c>
-      <c r="C70" s="114" t="s">
-        <v>614</v>
-      </c>
-      <c r="D70" s="114" t="s">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D70" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E70" s="114" t="s">
-        <v>615</v>
+      <c r="E70" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="F70" s="10">
         <v>1</v>
@@ -5634,16 +5645,18 @@
       <c r="G70" s="9"/>
       <c r="H70" s="11"/>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="116" t="s">
-        <v>596</v>
-      </c>
-      <c r="C71" s="9"/>
+        <v>613</v>
+      </c>
+      <c r="C71" s="114" t="s">
+        <v>614</v>
+      </c>
       <c r="D71" s="114" t="s">
-        <v>182</v>
+        <v>64</v>
       </c>
       <c r="E71" s="114" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
       <c r="F71" s="10">
         <v>1</v>
@@ -5651,20 +5664,26 @@
       <c r="G71" s="9"/>
       <c r="H71" s="11"/>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B72" s="123" t="s">
-        <v>651</v>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B72" s="116" t="s">
+        <v>596</v>
       </c>
       <c r="C72" s="9"/>
-      <c r="D72" s="114"/>
-      <c r="E72" s="114"/>
-      <c r="F72" s="10"/>
+      <c r="D72" s="114" t="s">
+        <v>182</v>
+      </c>
+      <c r="E72" s="114" t="s">
+        <v>597</v>
+      </c>
+      <c r="F72" s="10">
+        <v>1</v>
+      </c>
       <c r="G72" s="9"/>
       <c r="H72" s="11"/>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="123" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="114"/>
@@ -5673,90 +5692,86 @@
       <c r="G73" s="9"/>
       <c r="H73" s="11"/>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="123" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C74" s="9"/>
-      <c r="D74" s="124" t="s">
-        <v>182</v>
-      </c>
-      <c r="E74" s="124" t="s">
-        <v>266</v>
-      </c>
+      <c r="D74" s="114"/>
+      <c r="E74" s="114"/>
       <c r="F74" s="10"/>
       <c r="G74" s="9"/>
       <c r="H74" s="11"/>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B75" s="116" t="s">
-        <v>598</v>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B75" s="123" t="s">
+        <v>661</v>
       </c>
       <c r="C75" s="9"/>
-      <c r="D75" s="114" t="s">
+      <c r="D75" s="124" t="s">
         <v>182</v>
       </c>
-      <c r="E75" s="114" t="s">
-        <v>599</v>
-      </c>
-      <c r="F75" s="10">
-        <v>1</v>
-      </c>
+      <c r="E75" s="124" t="s">
+        <v>266</v>
+      </c>
+      <c r="F75" s="10"/>
       <c r="G75" s="9"/>
       <c r="H75" s="11"/>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B76" s="123" t="s">
-        <v>653</v>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B76" s="116" t="s">
+        <v>598</v>
       </c>
       <c r="C76" s="9"/>
-      <c r="D76" s="124" t="s">
+      <c r="D76" s="114" t="s">
         <v>182</v>
       </c>
-      <c r="E76" s="114"/>
-      <c r="F76" s="10"/>
+      <c r="E76" s="114" t="s">
+        <v>599</v>
+      </c>
+      <c r="F76" s="10">
+        <v>1</v>
+      </c>
       <c r="G76" s="9"/>
       <c r="H76" s="11"/>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B77" s="116" t="s">
-        <v>593</v>
-      </c>
-      <c r="C77" s="114" t="s">
-        <v>595</v>
-      </c>
-      <c r="D77" s="114" t="s">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B77" s="123" t="s">
+        <v>653</v>
+      </c>
+      <c r="C77" s="9"/>
+      <c r="D77" s="124" t="s">
         <v>182</v>
       </c>
-      <c r="E77" s="114" t="s">
-        <v>594</v>
-      </c>
-      <c r="F77" s="10">
-        <v>1</v>
-      </c>
+      <c r="E77" s="114"/>
+      <c r="F77" s="10"/>
       <c r="G77" s="9"/>
       <c r="H77" s="11"/>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B78" s="123" t="s">
-        <v>660</v>
-      </c>
-      <c r="C78" s="114"/>
-      <c r="D78" s="124" t="s">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B78" s="116" t="s">
+        <v>593</v>
+      </c>
+      <c r="C78" s="114" t="s">
+        <v>595</v>
+      </c>
+      <c r="D78" s="114" t="s">
         <v>182</v>
       </c>
-      <c r="E78" s="114"/>
-      <c r="F78" s="10"/>
+      <c r="E78" s="114" t="s">
+        <v>594</v>
+      </c>
+      <c r="F78" s="10">
+        <v>1</v>
+      </c>
       <c r="G78" s="9"/>
       <c r="H78" s="11"/>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79" s="123" t="s">
-        <v>654</v>
-      </c>
-      <c r="C79" s="124" t="s">
-        <v>655</v>
-      </c>
+        <v>660</v>
+      </c>
+      <c r="C79" s="114"/>
       <c r="D79" s="124" t="s">
         <v>182</v>
       </c>
@@ -5765,294 +5780,309 @@
       <c r="G79" s="9"/>
       <c r="H79" s="11"/>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B80" s="83" t="s">
-        <v>376</v>
-      </c>
-      <c r="C80" s="84" t="s">
-        <v>195</v>
-      </c>
-      <c r="D80" s="84" t="s">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B80" s="123" t="s">
+        <v>654</v>
+      </c>
+      <c r="C80" s="124" t="s">
+        <v>655</v>
+      </c>
+      <c r="D80" s="124" t="s">
         <v>182</v>
       </c>
-      <c r="E80" s="84" t="s">
-        <v>377</v>
-      </c>
-      <c r="F80" s="10">
-        <v>1</v>
-      </c>
+      <c r="E80" s="114"/>
+      <c r="F80" s="10"/>
       <c r="G80" s="9"/>
       <c r="H80" s="11"/>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B81" s="116" t="s">
-        <v>541</v>
-      </c>
-      <c r="C81" s="114" t="s">
-        <v>378</v>
-      </c>
-      <c r="D81" s="114" t="s">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B81" s="83" t="s">
+        <v>376</v>
+      </c>
+      <c r="C81" s="84" t="s">
+        <v>195</v>
+      </c>
+      <c r="D81" s="84" t="s">
         <v>182</v>
       </c>
-      <c r="E81" s="114" t="s">
-        <v>542</v>
-      </c>
-      <c r="F81" s="114" t="s">
-        <v>543</v>
+      <c r="E81" s="84" t="s">
+        <v>377</v>
+      </c>
+      <c r="F81" s="10">
+        <v>1</v>
       </c>
       <c r="G81" s="9"/>
       <c r="H81" s="11"/>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="116" t="s">
-        <v>611</v>
+        <v>541</v>
       </c>
       <c r="C82" s="114" t="s">
-        <v>612</v>
+        <v>378</v>
       </c>
       <c r="D82" s="114" t="s">
         <v>182</v>
       </c>
-      <c r="E82" s="114"/>
-      <c r="F82" s="114"/>
+      <c r="E82" s="114" t="s">
+        <v>542</v>
+      </c>
+      <c r="F82" s="114" t="s">
+        <v>543</v>
+      </c>
       <c r="G82" s="9"/>
       <c r="H82" s="11"/>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B83" s="83" t="s">
-        <v>373</v>
-      </c>
-      <c r="C83" s="84" t="s">
-        <v>195</v>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B83" s="116" t="s">
+        <v>611</v>
+      </c>
+      <c r="C83" s="114" t="s">
+        <v>612</v>
       </c>
       <c r="D83" s="114" t="s">
         <v>182</v>
       </c>
-      <c r="E83" s="84" t="s">
-        <v>374</v>
-      </c>
-      <c r="F83" s="84" t="s">
-        <v>375</v>
-      </c>
+      <c r="E83" s="114"/>
+      <c r="F83" s="114"/>
       <c r="G83" s="9"/>
       <c r="H83" s="11"/>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B84" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B84" s="83" t="s">
+        <v>373</v>
+      </c>
+      <c r="C84" s="84" t="s">
+        <v>195</v>
+      </c>
+      <c r="D84" s="114" t="s">
+        <v>182</v>
+      </c>
+      <c r="E84" s="84" t="s">
+        <v>374</v>
+      </c>
+      <c r="F84" s="84" t="s">
+        <v>375</v>
+      </c>
       <c r="G84" s="9"/>
       <c r="H84" s="11"/>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B85" s="5" t="s">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B85" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="11"/>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B86" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C85" s="12"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="12"/>
-      <c r="G85" s="12"/>
-      <c r="H85" s="13"/>
-    </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E87" s="112" t="s">
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="13"/>
+    </row>
+    <row r="88" spans="2:8" ht="13" x14ac:dyDescent="0.3">
+      <c r="E88" s="112" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E88" s="112" t="s">
+    <row r="89" spans="2:8" ht="13" x14ac:dyDescent="0.3">
+      <c r="E89" s="112" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E89" s="112" t="s">
+    <row r="90" spans="2:8" ht="13" x14ac:dyDescent="0.3">
+      <c r="E90" s="112" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E90" s="112" t="s">
+    <row r="91" spans="2:8" ht="13" x14ac:dyDescent="0.3">
+      <c r="E91" s="112" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E91" s="112" t="s">
+    <row r="92" spans="2:8" ht="13" x14ac:dyDescent="0.3">
+      <c r="E92" s="112" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E92" s="112" t="s">
+    <row r="93" spans="2:8" ht="13" x14ac:dyDescent="0.3">
+      <c r="E93" s="112" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E93" s="112" t="s">
+    <row r="94" spans="2:8" ht="13" x14ac:dyDescent="0.3">
+      <c r="E94" s="112" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E94" s="112" t="s">
+    <row r="95" spans="2:8" ht="13" x14ac:dyDescent="0.3">
+      <c r="E95" s="112" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E95" s="112" t="s">
+    <row r="96" spans="2:8" ht="13" x14ac:dyDescent="0.3">
+      <c r="E96" s="112" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E96" s="112" t="s">
+    <row r="97" spans="5:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="E97" s="112" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="97" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E97" s="112" t="s">
+    <row r="98" spans="5:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="E98" s="112" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="98" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E98" s="112" t="s">
+    <row r="99" spans="5:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="E99" s="112" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="99" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E99" s="112" t="s">
+    <row r="100" spans="5:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="E100" s="112" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="100" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E100" s="112" t="s">
+    <row r="101" spans="5:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="E101" s="112" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="101" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E101" s="112" t="s">
+    <row r="102" spans="5:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="E102" s="112" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="102" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E102" s="112" t="s">
+    <row r="103" spans="5:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="E103" s="112" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="103" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E103" s="112" t="s">
+    <row r="104" spans="5:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="E104" s="112" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="104" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E104" s="112" t="s">
+    <row r="105" spans="5:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="E105" s="112" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="105" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E105" s="112" t="s">
+    <row r="106" spans="5:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="E106" s="112" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="106" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E106" s="112" t="s">
+    <row r="107" spans="5:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="E107" s="112" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="107" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E107" s="112" t="s">
+    <row r="108" spans="5:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="E108" s="112" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="108" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E108" s="112" t="s">
+    <row r="109" spans="5:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="E109" s="112" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="109" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E109" s="112" t="s">
+    <row r="110" spans="5:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="E110" s="112" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="110" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E110" s="112" t="s">
+    <row r="111" spans="5:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="E111" s="112" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="111" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E111" s="112" t="s">
+    <row r="112" spans="5:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="E112" s="112" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="112" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E112" s="112" t="s">
+    <row r="113" spans="5:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="E113" s="112" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="113" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E113" s="112" t="s">
+    <row r="114" spans="5:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="E114" s="112" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="114" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E114" s="112" t="s">
+    <row r="115" spans="5:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="E115" s="112" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="115" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E115" s="112" t="s">
+    <row r="116" spans="5:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="E116" s="112" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="116" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E116" s="112" t="s">
+    <row r="117" spans="5:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="E117" s="112" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="117" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E117" s="112" t="s">
+    <row r="118" spans="5:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="E118" s="112" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="118" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E118" s="112" t="s">
+    <row r="119" spans="5:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="E119" s="112" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="119" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E119" s="85" t="s">
+    <row r="120" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E120" s="85" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="120" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E120" s="85" t="s">
+    <row r="121" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E121" s="85" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="121" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E121" s="85" t="s">
+    <row r="122" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E122" s="85" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="122" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E122" s="56" t="s">
+    <row r="123" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E123" s="56" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="124" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E124" s="86" t="s">
+    <row r="125" spans="5:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="E125" s="86" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="125" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E125" s="85" t="s">
+    <row r="126" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E126" s="85" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="126" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E126" s="85" t="s">
+    <row r="127" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E127" s="85" t="s">
         <v>383</v>
       </c>
     </row>
@@ -6080,28 +6110,28 @@
   <dimension ref="A1:II128"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="CH85" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="CH3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CM96" sqref="CM96"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="1" customWidth="1"/>
-    <col min="3" max="115" width="9.140625" style="2"/>
-    <col min="116" max="117" width="9.140625" style="1"/>
-    <col min="118" max="121" width="9.5703125" style="1" customWidth="1"/>
-    <col min="122" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="21.26953125" style="1" customWidth="1"/>
+    <col min="3" max="115" width="9.1796875" style="2"/>
+    <col min="116" max="117" width="9.1796875" style="1"/>
+    <col min="118" max="121" width="9.54296875" style="1" customWidth="1"/>
+    <col min="122" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:121" x14ac:dyDescent="0.25">
       <c r="C2" s="97" t="s">
         <v>448</v>
       </c>
@@ -6478,7 +6508,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="3" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:121" x14ac:dyDescent="0.25">
       <c r="B3" s="55" t="s">
         <v>249</v>
       </c>
@@ -6694,7 +6724,7 @@
         <v>32260.924444111057</v>
       </c>
     </row>
-    <row r="4" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:121" x14ac:dyDescent="0.25">
       <c r="BC4" s="22"/>
       <c r="BD4" s="22"/>
       <c r="BE4" s="22"/>
@@ -6738,7 +6768,7 @@
       <c r="CQ4" s="44"/>
       <c r="CR4" s="44"/>
     </row>
-    <row r="5" spans="1:121" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:121" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="15" t="s">
         <v>0</v>
       </c>
@@ -7015,7 +7045,7 @@
         <v>1121</v>
       </c>
       <c r="CN5" s="16">
-        <f t="shared" ref="CM5:CP5" si="8">+CJ5*0.6</f>
+        <f t="shared" ref="CN5:CP5" si="8">+CJ5*0.6</f>
         <v>1688.3999999999999</v>
       </c>
       <c r="CO5" s="16">
@@ -7108,7 +7138,7 @@
         <v>12.886999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:121" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:121" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
         <v>123</v>
       </c>
@@ -7310,7 +7340,7 @@
       <c r="DJ6" s="16"/>
       <c r="DK6" s="16"/>
     </row>
-    <row r="7" spans="1:121" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:121" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
         <v>116</v>
       </c>
@@ -7580,7 +7610,7 @@
         <v>1108.6754020639653</v>
       </c>
     </row>
-    <row r="8" spans="1:121" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:121" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
         <v>114</v>
       </c>
@@ -7815,7 +7845,7 @@
         <v>22219.641457886053</v>
       </c>
     </row>
-    <row r="9" spans="1:121" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:121" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="s">
         <v>118</v>
       </c>
@@ -7978,7 +8008,7 @@
         <v>556</v>
       </c>
       <c r="CN9" s="16">
-        <f t="shared" ref="CM9:CP9" si="36">+CJ9*0.97</f>
+        <f t="shared" ref="CN9:CP9" si="36">+CJ9*0.97</f>
         <v>707.13</v>
       </c>
       <c r="CO9" s="16">
@@ -8071,7 +8101,7 @@
         <v>4203.183405990244</v>
       </c>
     </row>
-    <row r="10" spans="1:121" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:121" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="s">
         <v>121</v>
       </c>
@@ -8327,7 +8357,7 @@
         <v>5952.7954135581649</v>
       </c>
     </row>
-    <row r="11" spans="1:121" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:121" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="122" t="s">
         <v>650</v>
       </c>
@@ -8471,7 +8501,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="12" spans="1:121" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:121" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="76" t="s">
         <v>117</v>
       </c>
@@ -8619,7 +8649,7 @@
         <v>665</v>
       </c>
       <c r="CN12" s="16">
-        <f t="shared" ref="CM12:CP12" si="44">+CJ12*1.1</f>
+        <f t="shared" ref="CN12:CP12" si="44">+CJ12*1.1</f>
         <v>700.7</v>
       </c>
       <c r="CO12" s="16">
@@ -8712,7 +8742,7 @@
         <v>3.1862028902290025E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:121" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:121" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="23" t="s">
         <v>115</v>
       </c>
@@ -8945,7 +8975,7 @@
         <v>0.12681682536672007</v>
       </c>
     </row>
-    <row r="14" spans="1:121" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:121" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="23" t="s">
         <v>124</v>
       </c>
@@ -9107,7 +9137,7 @@
         <v>765</v>
       </c>
       <c r="CN14" s="16">
-        <f t="shared" ref="CM14:CP14" si="48">+CJ14*1.1</f>
+        <f t="shared" ref="CN14:CP14" si="48">+CJ14*1.1</f>
         <v>851.40000000000009</v>
       </c>
       <c r="CO14" s="16">
@@ -9200,7 +9230,7 @@
         <v>4.0465418245930022E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:121" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:121" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="23" t="s">
         <v>119</v>
       </c>
@@ -9455,7 +9485,7 @@
         <v>1666.3592031933231</v>
       </c>
     </row>
-    <row r="16" spans="1:121" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:121" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="23" t="s">
         <v>132</v>
       </c>
@@ -9710,7 +9740,7 @@
         <v>33.100449677819988</v>
       </c>
     </row>
-    <row r="17" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="23" t="s">
         <v>120</v>
       </c>
@@ -9965,7 +9995,7 @@
         <v>444.56501112750016</v>
       </c>
     </row>
-    <row r="18" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="15" t="s">
         <v>6</v>
       </c>
@@ -10258,7 +10288,7 @@
         <v>1952.7104991870096</v>
       </c>
     </row>
-    <row r="19" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="23" t="s">
         <v>131</v>
       </c>
@@ -10513,7 +10543,7 @@
         <v>301.25817224640008</v>
       </c>
     </row>
-    <row r="20" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="23" t="s">
         <v>130</v>
       </c>
@@ -10767,7 +10797,7 @@
         <v>148.53701548260005</v>
       </c>
     </row>
-    <row r="21" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="23" t="s">
         <v>133</v>
       </c>
@@ -11020,7 +11050,7 @@
         <v>0.81640625</v>
       </c>
     </row>
-    <row r="22" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="23" t="s">
         <v>127</v>
       </c>
@@ -11177,7 +11207,7 @@
         <v>100</v>
       </c>
       <c r="CM22" s="16">
-        <f t="shared" ref="CM21:CM22" si="98">+CI22</f>
+        <f t="shared" ref="CM22" si="98">+CI22</f>
         <v>74</v>
       </c>
       <c r="CN22" s="16">
@@ -11274,7 +11304,7 @@
         <v>117.85331275380001</v>
       </c>
     </row>
-    <row r="23" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="23" t="s">
         <v>128</v>
       </c>
@@ -11434,7 +11464,7 @@
         <v>106</v>
       </c>
       <c r="CN23" s="16">
-        <f t="shared" ref="CM23:CP23" si="105">+CM23-1</f>
+        <f t="shared" ref="CN23:CP23" si="105">+CM23-1</f>
         <v>105</v>
       </c>
       <c r="CO23" s="16">
@@ -11527,7 +11557,7 @@
         <v>145.74758796180001</v>
       </c>
     </row>
-    <row r="24" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="23" t="s">
         <v>125</v>
       </c>
@@ -11687,7 +11717,7 @@
         <v>240</v>
       </c>
       <c r="CN24" s="16">
-        <f t="shared" ref="CM24:CP24" si="107">+CJ24*1.1</f>
+        <f t="shared" ref="CN24:CP24" si="107">+CJ24*1.1</f>
         <v>254.10000000000002</v>
       </c>
       <c r="CO24" s="16">
@@ -11780,7 +11810,7 @@
         <v>1.6799625480000005E-3</v>
       </c>
     </row>
-    <row r="25" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="15" t="s">
         <v>4</v>
       </c>
@@ -11974,7 +12004,7 @@
         <v>96</v>
       </c>
       <c r="CN25" s="16">
-        <f t="shared" ref="CM25:CP25" si="109">+CJ25</f>
+        <f t="shared" ref="CN25:CP25" si="109">+CJ25</f>
         <v>113</v>
       </c>
       <c r="CO25" s="16">
@@ -12067,7 +12097,7 @@
         <v>149.23437236280006</v>
       </c>
     </row>
-    <row r="26" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="23" t="s">
         <v>129</v>
       </c>
@@ -12227,7 +12257,7 @@
         <v>60</v>
       </c>
       <c r="CN26" s="16">
-        <f t="shared" ref="CM26:CP26" si="116">+CM26-1</f>
+        <f t="shared" ref="CN26:CP26" si="116">+CM26-1</f>
         <v>59</v>
       </c>
       <c r="CO26" s="16">
@@ -12320,7 +12350,7 @@
         <v>81.590754983400018</v>
       </c>
     </row>
-    <row r="27" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="23" t="s">
         <v>126</v>
       </c>
@@ -12480,7 +12510,7 @@
         <v>193</v>
       </c>
       <c r="CN27" s="16">
-        <f t="shared" ref="CM27:CP27" si="118">+CJ27*1.3</f>
+        <f t="shared" ref="CN27:CP27" si="118">+CJ27*1.3</f>
         <v>195</v>
       </c>
       <c r="CO27" s="16">
@@ -12573,7 +12603,7 @@
         <v>1.3132512360000002E-3</v>
       </c>
     </row>
-    <row r="28" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="79" t="s">
         <v>324</v>
       </c>
@@ -12752,7 +12782,7 @@
         <v>1934.9318752346012</v>
       </c>
     </row>
-    <row r="29" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="109" t="s">
         <v>635</v>
       </c>
@@ -12898,7 +12928,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="30" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="79" t="s">
         <v>325</v>
       </c>
@@ -13084,7 +13114,7 @@
         <v>1081.7337777246</v>
       </c>
     </row>
-    <row r="31" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="74" t="s">
         <v>318</v>
       </c>
@@ -13203,7 +13233,7 @@
         <v>123</v>
       </c>
       <c r="CN31" s="16">
-        <f t="shared" ref="CM31:CP31" si="124">+CJ31+5</f>
+        <f t="shared" ref="CN31:CP31" si="124">+CJ31+5</f>
         <v>129</v>
       </c>
       <c r="CO31" s="16">
@@ -13284,7 +13314,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="32" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="109" t="s">
         <v>461</v>
       </c>
@@ -13438,7 +13468,7 @@
         <v>32.164060563210306</v>
       </c>
     </row>
-    <row r="33" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="109" t="s">
         <v>572</v>
       </c>
@@ -13588,7 +13618,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="48" t="s">
         <v>230</v>
       </c>
@@ -13743,7 +13773,7 @@
       <c r="DJ34" s="16"/>
       <c r="DK34" s="16"/>
     </row>
-    <row r="35" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="48" t="s">
         <v>231</v>
       </c>
@@ -13898,7 +13928,7 @@
       <c r="DJ35" s="16"/>
       <c r="DK35" s="16"/>
     </row>
-    <row r="36" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="98" t="s">
         <v>436</v>
       </c>
@@ -14042,7 +14072,7 @@
       <c r="DJ36" s="16"/>
       <c r="DK36" s="16"/>
     </row>
-    <row r="37" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="98" t="s">
         <v>437</v>
       </c>
@@ -14186,7 +14216,7 @@
       <c r="DJ37" s="16"/>
       <c r="DK37" s="16"/>
     </row>
-    <row r="38" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="98" t="s">
         <v>438</v>
       </c>
@@ -14330,7 +14360,7 @@
       <c r="DJ38" s="16"/>
       <c r="DK38" s="16"/>
     </row>
-    <row r="39" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="15" t="s">
         <v>9</v>
       </c>
@@ -14586,7 +14616,7 @@
       <c r="DJ39" s="16"/>
       <c r="DK39" s="16"/>
     </row>
-    <row r="40" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="15" t="s">
         <v>7</v>
       </c>
@@ -14849,7 +14879,7 @@
       <c r="DJ40" s="16"/>
       <c r="DK40" s="16"/>
     </row>
-    <row r="41" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="48" t="s">
         <v>232</v>
       </c>
@@ -15004,7 +15034,7 @@
       <c r="DJ41" s="16"/>
       <c r="DK41" s="16"/>
     </row>
-    <row r="42" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="15" t="s">
         <v>2</v>
       </c>
@@ -15191,7 +15221,7 @@
       <c r="DJ42" s="16"/>
       <c r="DK42" s="16"/>
     </row>
-    <row r="43" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="98" t="s">
         <v>426</v>
       </c>
@@ -15351,7 +15381,7 @@
       <c r="DJ43" s="16"/>
       <c r="DK43" s="16"/>
     </row>
-    <row r="44" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="15" t="s">
         <v>3</v>
       </c>
@@ -15544,7 +15574,7 @@
       <c r="DJ44" s="16"/>
       <c r="DK44" s="16"/>
     </row>
-    <row r="45" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="98" t="s">
         <v>443</v>
       </c>
@@ -15679,7 +15709,7 @@
       <c r="DJ45" s="16"/>
       <c r="DK45" s="16"/>
     </row>
-    <row r="46" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="98" t="s">
         <v>431</v>
       </c>
@@ -15825,7 +15855,7 @@
       <c r="DJ46" s="16"/>
       <c r="DK46" s="16"/>
     </row>
-    <row r="47" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="98" t="s">
         <v>421</v>
       </c>
@@ -15985,7 +16015,7 @@
       <c r="DJ47" s="16"/>
       <c r="DK47" s="16"/>
     </row>
-    <row r="48" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="15" t="s">
         <v>11</v>
       </c>
@@ -16246,7 +16276,7 @@
       <c r="DJ48" s="16"/>
       <c r="DK48" s="16"/>
     </row>
-    <row r="49" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="98" t="s">
         <v>420</v>
       </c>
@@ -16415,7 +16445,7 @@
       <c r="DJ49" s="16"/>
       <c r="DK49" s="16"/>
     </row>
-    <row r="50" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="15" t="s">
         <v>10</v>
       </c>
@@ -16630,7 +16660,7 @@
       <c r="DJ50" s="16"/>
       <c r="DK50" s="16"/>
     </row>
-    <row r="51" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="48" t="s">
         <v>233</v>
       </c>
@@ -16801,7 +16831,7 @@
       <c r="DJ51" s="16"/>
       <c r="DK51" s="16"/>
     </row>
-    <row r="52" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
@@ -17042,7 +17072,7 @@
       <c r="DJ52" s="16"/>
       <c r="DK52" s="16"/>
     </row>
-    <row r="53" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="15" t="s">
         <v>63</v>
       </c>
@@ -17230,7 +17260,7 @@
       <c r="DJ53" s="16"/>
       <c r="DK53" s="16"/>
     </row>
-    <row r="54" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="15" t="s">
         <v>5</v>
       </c>
@@ -17395,7 +17425,7 @@
       <c r="DJ54" s="16"/>
       <c r="DK54" s="16"/>
     </row>
-    <row r="55" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="15" t="s">
         <v>13</v>
       </c>
@@ -17716,7 +17746,7 @@
       <c r="DJ55" s="16"/>
       <c r="DK55" s="16"/>
     </row>
-    <row r="56" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="15" t="s">
         <v>12</v>
       </c>
@@ -17933,7 +17963,7 @@
         <v>563</v>
       </c>
       <c r="CN56" s="16">
-        <f t="shared" ref="CM56:CP56" si="129">+CJ56</f>
+        <f t="shared" ref="CN56:CP56" si="129">+CJ56</f>
         <v>810</v>
       </c>
       <c r="CO56" s="16">
@@ -18026,7 +18056,7 @@
         <v>951.47372734488022</v>
       </c>
     </row>
-    <row r="57" spans="2:121" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:121" s="17" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B57" s="17" t="s">
         <v>241</v>
       </c>
@@ -18475,7 +18505,7 @@
         <v>49640.395948376048</v>
       </c>
     </row>
-    <row r="58" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="15" t="s">
         <v>25</v>
       </c>
@@ -18742,7 +18772,7 @@
         <v>8610.6038895156453</v>
       </c>
     </row>
-    <row r="59" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="15" t="s">
         <v>24</v>
       </c>
@@ -19056,7 +19086,7 @@
         <v>48793.422040588652</v>
       </c>
     </row>
-    <row r="60" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="15" t="s">
         <v>23</v>
       </c>
@@ -19323,7 +19353,7 @@
         <v>11480.80518602086</v>
       </c>
     </row>
-    <row r="61" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="15" t="s">
         <v>22</v>
       </c>
@@ -19571,7 +19601,7 @@
       <c r="DJ61" s="16"/>
       <c r="DK61" s="16"/>
     </row>
-    <row r="62" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="15" t="s">
         <v>20</v>
       </c>
@@ -19885,7 +19915,7 @@
         <v>11480.80518602086</v>
       </c>
     </row>
-    <row r="63" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="15" t="s">
         <v>21</v>
       </c>
@@ -20199,7 +20229,7 @@
         <v>37312.616854567794</v>
       </c>
     </row>
-    <row r="64" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:121" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="15" t="s">
         <v>19</v>
       </c>
@@ -20504,7 +20534,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="65" spans="2:243" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:243" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="15" t="s">
         <v>18</v>
       </c>
@@ -20818,7 +20848,7 @@
         <v>37604.616854567794</v>
       </c>
     </row>
-    <row r="66" spans="2:243" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:243" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="15" t="s">
         <v>17</v>
       </c>
@@ -21090,7 +21120,7 @@
         <v>5640.6925281851691</v>
       </c>
     </row>
-    <row r="67" spans="2:243" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:243" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="15" t="s">
         <v>16</v>
       </c>
@@ -21912,7 +21942,7 @@
         <v>8919.2802034085817</v>
       </c>
     </row>
-    <row r="68" spans="2:243" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:243" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="14" t="s">
         <v>15</v>
       </c>
@@ -22226,7 +22256,7 @@
         <v>18.035787460224363</v>
       </c>
     </row>
-    <row r="69" spans="2:243" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:243" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="15" t="s">
         <v>14</v>
       </c>
@@ -22493,7 +22523,7 @@
         <v>1772.25</v>
       </c>
     </row>
-    <row r="71" spans="2:243" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:243" s="32" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B71" s="32" t="s">
         <v>156</v>
       </c>
@@ -22776,7 +22806,7 @@
         <v>2.461655299752108E-2</v>
       </c>
     </row>
-    <row r="72" spans="2:243" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:243" s="32" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B72" s="32" t="s">
         <v>250</v>
       </c>
@@ -22933,7 +22963,7 @@
       <c r="DK72" s="33"/>
       <c r="DL72" s="33"/>
     </row>
-    <row r="73" spans="2:243" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:243" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="31" t="s">
         <v>155</v>
       </c>
@@ -23184,7 +23214,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="74" spans="2:243" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:243" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="31" t="s">
         <v>157</v>
       </c>
@@ -23441,7 +23471,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="75" spans="2:243" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:243" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="31" t="s">
         <v>154</v>
       </c>
@@ -23698,7 +23728,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="76" spans="2:243" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:243" s="29" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B76" s="70" t="s">
         <v>315</v>
       </c>
@@ -23943,7 +23973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:243" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:243" s="29" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B77" s="43" t="s">
         <v>118</v>
       </c>
@@ -24192,7 +24222,7 @@
         <v>407538.97159824241</v>
       </c>
     </row>
-    <row r="78" spans="2:243" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:243" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B78" s="43" t="s">
         <v>121</v>
       </c>
@@ -24441,7 +24471,7 @@
         <v>229.98813295611873</v>
       </c>
     </row>
-    <row r="79" spans="2:243" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:243" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="53" t="s">
         <v>248</v>
       </c>
@@ -24686,7 +24716,7 @@
         <v>3.0000000000000027E-2</v>
       </c>
     </row>
-    <row r="80" spans="2:243" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:243" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="110" t="s">
         <v>506</v>
       </c>
@@ -24862,7 +24892,7 @@
       <c r="DK80" s="30"/>
       <c r="DL80" s="30"/>
     </row>
-    <row r="81" spans="2:116" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:116" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="53"/>
       <c r="C81" s="30"/>
       <c r="D81" s="30"/>
@@ -24979,7 +25009,7 @@
       <c r="DK81" s="30"/>
       <c r="DL81" s="30"/>
     </row>
-    <row r="82" spans="2:116" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:116" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="43"/>
       <c r="C82" s="30"/>
       <c r="D82" s="30"/>
@@ -25095,7 +25125,7 @@
       <c r="DJ82" s="30"/>
       <c r="DK82" s="30"/>
     </row>
-    <row r="83" spans="2:116" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:116" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B83" s="43" t="s">
         <v>203</v>
       </c>
@@ -25355,7 +25385,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="84" spans="2:116" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:116" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B84" s="43" t="s">
         <v>204</v>
       </c>
@@ -25615,7 +25645,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="86" spans="2:116" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:116" x14ac:dyDescent="0.25">
       <c r="B86" s="25" t="s">
         <v>145</v>
       </c>
@@ -25648,33 +25678,33 @@
         <v>-47181</v>
       </c>
       <c r="CH86" s="16">
-        <f>CH87-CH96</f>
+        <f t="shared" ref="CH86:CM86" si="338">CH87-CH96</f>
         <v>-46265</v>
       </c>
       <c r="CI86" s="16">
-        <f>CI87-CI96</f>
+        <f t="shared" si="338"/>
         <v>-55627</v>
       </c>
       <c r="CJ86" s="16">
-        <f>CJ87-CJ96</f>
+        <f t="shared" si="338"/>
         <v>-57205</v>
       </c>
       <c r="CK86" s="16">
-        <f>CK87-CK96</f>
+        <f t="shared" si="338"/>
         <v>-63527</v>
       </c>
       <c r="CL86" s="16">
-        <f>CL87-CL96</f>
+        <f t="shared" si="338"/>
         <v>-61310</v>
       </c>
       <c r="CM86" s="16">
-        <f>CM87-CM96</f>
+        <f t="shared" si="338"/>
         <v>-64426</v>
       </c>
       <c r="CN86" s="16"/>
       <c r="CO86" s="16"/>
     </row>
-    <row r="87" spans="2:116" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:116" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B87" s="23" t="s">
         <v>50</v>
       </c>
@@ -25828,7 +25858,7 @@
       <c r="DJ87" s="16"/>
       <c r="DK87" s="16"/>
     </row>
-    <row r="88" spans="2:116" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:116" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B88" s="23" t="s">
         <v>135</v>
       </c>
@@ -25970,7 +26000,7 @@
       <c r="DJ88" s="16"/>
       <c r="DK88" s="16"/>
     </row>
-    <row r="89" spans="2:116" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:116" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B89" s="23" t="s">
         <v>136</v>
       </c>
@@ -26112,7 +26142,7 @@
       <c r="DJ89" s="16"/>
       <c r="DK89" s="16"/>
     </row>
-    <row r="90" spans="2:116" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:116" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B90" s="23" t="s">
         <v>137</v>
       </c>
@@ -26254,7 +26284,7 @@
       <c r="DJ90" s="16"/>
       <c r="DK90" s="16"/>
     </row>
-    <row r="91" spans="2:116" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:116" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B91" s="23" t="s">
         <v>138</v>
       </c>
@@ -26396,7 +26426,7 @@
       <c r="DJ91" s="16"/>
       <c r="DK91" s="16"/>
     </row>
-    <row r="92" spans="2:116" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:116" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B92" s="23" t="s">
         <v>139</v>
       </c>
@@ -26550,7 +26580,7 @@
       <c r="DJ92" s="16"/>
       <c r="DK92" s="16"/>
     </row>
-    <row r="93" spans="2:116" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:116" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B93" s="23" t="s">
         <v>12</v>
       </c>
@@ -26692,7 +26722,7 @@
       <c r="DJ93" s="16"/>
       <c r="DK93" s="16"/>
     </row>
-    <row r="94" spans="2:116" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:116" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B94" s="23" t="s">
         <v>134</v>
       </c>
@@ -26786,39 +26816,39 @@
       </c>
       <c r="CD94" s="16"/>
       <c r="CE94" s="16">
-        <f t="shared" ref="CE94:CK94" si="338">SUM(CE87:CE93)</f>
+        <f t="shared" ref="CE94:CK94" si="339">SUM(CE87:CE93)</f>
         <v>134544</v>
       </c>
       <c r="CF94" s="16">
-        <f t="shared" si="338"/>
+        <f t="shared" si="339"/>
         <v>135367</v>
       </c>
       <c r="CG94" s="16">
-        <f t="shared" si="338"/>
+        <f t="shared" si="339"/>
         <v>136221</v>
       </c>
       <c r="CH94" s="16">
-        <f t="shared" si="338"/>
+        <f t="shared" si="339"/>
         <v>134711</v>
       </c>
       <c r="CI94" s="16">
-        <f t="shared" si="338"/>
+        <f t="shared" si="339"/>
         <v>148874</v>
       </c>
       <c r="CJ94" s="16">
-        <f t="shared" si="338"/>
+        <f t="shared" si="339"/>
         <v>141937</v>
       </c>
       <c r="CK94" s="16">
-        <f t="shared" si="338"/>
+        <f t="shared" si="339"/>
         <v>143422</v>
       </c>
       <c r="CL94" s="16">
-        <f t="shared" ref="CL94:CM94" si="339">SUM(CL87:CL93)</f>
+        <f t="shared" ref="CL94:CM94" si="340">SUM(CL87:CL93)</f>
         <v>135161</v>
       </c>
       <c r="CM94" s="16">
-        <f t="shared" si="339"/>
+        <f t="shared" si="340"/>
         <v>136165</v>
       </c>
       <c r="CN94" s="16"/>
@@ -26846,7 +26876,7 @@
       <c r="DJ94" s="16"/>
       <c r="DK94" s="16"/>
     </row>
-    <row r="96" spans="2:116" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:116" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B96" s="23" t="s">
         <v>51</v>
       </c>
@@ -27000,7 +27030,7 @@
       <c r="DJ96" s="16"/>
       <c r="DK96" s="16"/>
     </row>
-    <row r="97" spans="2:115" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:115" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B97" s="23" t="s">
         <v>140</v>
       </c>
@@ -27142,7 +27172,7 @@
       <c r="DJ97" s="16"/>
       <c r="DK97" s="16"/>
     </row>
-    <row r="98" spans="2:115" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:115" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B98" s="23" t="s">
         <v>141</v>
       </c>
@@ -27284,7 +27314,7 @@
       <c r="DJ98" s="16"/>
       <c r="DK98" s="16"/>
     </row>
-    <row r="99" spans="2:115" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:115" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B99" s="23" t="s">
         <v>142</v>
       </c>
@@ -27426,7 +27456,7 @@
       <c r="DJ99" s="16"/>
       <c r="DK99" s="16"/>
     </row>
-    <row r="100" spans="2:115" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:115" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B100" s="23" t="s">
         <v>143</v>
       </c>
@@ -27569,7 +27599,7 @@
       <c r="DJ100" s="16"/>
       <c r="DK100" s="16"/>
     </row>
-    <row r="101" spans="2:115" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:115" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B101" s="23" t="s">
         <v>144</v>
       </c>
@@ -27663,35 +27693,35 @@
       </c>
       <c r="CD101" s="16"/>
       <c r="CE101" s="16">
-        <f t="shared" ref="CE101:CM101" si="340">SUM(CE96:CE100)</f>
+        <f t="shared" ref="CE101:CL101" si="341">SUM(CE96:CE100)</f>
         <v>134544</v>
       </c>
       <c r="CF101" s="16">
-        <f t="shared" si="340"/>
+        <f t="shared" si="341"/>
         <v>135367</v>
       </c>
       <c r="CG101" s="16">
-        <f t="shared" si="340"/>
+        <f t="shared" si="341"/>
         <v>136221</v>
       </c>
       <c r="CH101" s="16">
-        <f t="shared" si="340"/>
+        <f t="shared" si="341"/>
         <v>134711</v>
       </c>
       <c r="CI101" s="16">
-        <f t="shared" si="340"/>
+        <f t="shared" si="341"/>
         <v>148874</v>
       </c>
       <c r="CJ101" s="16">
-        <f t="shared" si="340"/>
+        <f t="shared" si="341"/>
         <v>141937</v>
       </c>
       <c r="CK101" s="16">
-        <f t="shared" si="340"/>
+        <f t="shared" si="341"/>
         <v>143422</v>
       </c>
       <c r="CL101" s="16">
-        <f t="shared" si="340"/>
+        <f t="shared" si="341"/>
         <v>135161</v>
       </c>
       <c r="CM101" s="16">
@@ -27723,7 +27753,7 @@
       <c r="DJ101" s="16"/>
       <c r="DK101" s="16"/>
     </row>
-    <row r="103" spans="2:115" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:115" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B103" s="65" t="s">
         <v>290</v>
       </c>
@@ -27811,31 +27841,31 @@
       <c r="CC103" s="16"/>
       <c r="CD103" s="16"/>
       <c r="CE103" s="16">
-        <f t="shared" ref="CE103:CK103" si="341">+CE67</f>
+        <f t="shared" ref="CE103:CK103" si="342">+CE67</f>
         <v>4941</v>
       </c>
       <c r="CF103" s="16">
-        <f t="shared" si="341"/>
+        <f t="shared" si="342"/>
         <v>5641</v>
       </c>
       <c r="CG103" s="16">
-        <f t="shared" si="341"/>
+        <f t="shared" si="342"/>
         <v>5344</v>
       </c>
       <c r="CH103" s="16">
-        <f t="shared" si="341"/>
+        <f t="shared" si="342"/>
         <v>5861</v>
       </c>
       <c r="CI103" s="16">
-        <f t="shared" si="341"/>
+        <f t="shared" si="342"/>
         <v>4291</v>
       </c>
       <c r="CJ103" s="16">
-        <f t="shared" si="341"/>
+        <f t="shared" si="342"/>
         <v>5650</v>
       </c>
       <c r="CK103" s="16">
-        <f t="shared" si="341"/>
+        <f t="shared" si="342"/>
         <v>5409</v>
       </c>
       <c r="CL103" s="16">
@@ -27868,7 +27898,7 @@
       <c r="DJ103" s="16"/>
       <c r="DK103" s="16"/>
     </row>
-    <row r="104" spans="2:115" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:115" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B104" s="65" t="s">
         <v>291</v>
       </c>
@@ -28010,7 +28040,7 @@
       <c r="DJ104" s="16"/>
       <c r="DK104" s="16"/>
     </row>
-    <row r="105" spans="2:115" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:115" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B105" s="65" t="s">
         <v>292</v>
       </c>
@@ -28152,7 +28182,7 @@
       <c r="DJ105" s="16"/>
       <c r="DK105" s="16"/>
     </row>
-    <row r="106" spans="2:115" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:115" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B106" s="65" t="s">
         <v>293</v>
       </c>
@@ -28294,7 +28324,7 @@
       <c r="DJ106" s="16"/>
       <c r="DK106" s="16"/>
     </row>
-    <row r="107" spans="2:115" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:115" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B107" s="65" t="s">
         <v>141</v>
       </c>
@@ -28436,7 +28466,7 @@
       <c r="DJ107" s="16"/>
       <c r="DK107" s="16"/>
     </row>
-    <row r="108" spans="2:115" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:115" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B108" s="65" t="s">
         <v>294</v>
       </c>
@@ -28579,7 +28609,7 @@
       <c r="DJ108" s="16"/>
       <c r="DK108" s="16"/>
     </row>
-    <row r="109" spans="2:115" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:115" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B109" s="65" t="s">
         <v>295</v>
       </c>
@@ -28721,7 +28751,7 @@
       <c r="DJ109" s="16"/>
       <c r="DK109" s="16"/>
     </row>
-    <row r="110" spans="2:115" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:115" x14ac:dyDescent="0.25">
       <c r="B110" s="62" t="s">
         <v>298</v>
       </c>
@@ -28760,7 +28790,7 @@
         <v>6050</v>
       </c>
     </row>
-    <row r="111" spans="2:115" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:115" x14ac:dyDescent="0.25">
       <c r="B111" s="62" t="s">
         <v>12</v>
       </c>
@@ -28798,7 +28828,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="112" spans="2:115" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:115" x14ac:dyDescent="0.25">
       <c r="B112" s="62" t="s">
         <v>297</v>
       </c>
@@ -28839,7 +28869,7 @@
         <v>-397</v>
       </c>
     </row>
-    <row r="113" spans="2:115" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:115" x14ac:dyDescent="0.25">
       <c r="B113" s="62" t="s">
         <v>296</v>
       </c>
@@ -28848,31 +28878,31 @@
         <v>4908</v>
       </c>
       <c r="CE113" s="16">
-        <f t="shared" ref="CE113:CK113" si="342">SUM(CE104:CE112)</f>
+        <f t="shared" ref="CE113:CK113" si="343">SUM(CE104:CE112)</f>
         <v>4193</v>
       </c>
       <c r="CF113" s="16">
-        <f t="shared" si="342"/>
+        <f t="shared" si="343"/>
         <v>6319</v>
       </c>
       <c r="CG113" s="16">
-        <f t="shared" si="342"/>
+        <f t="shared" si="343"/>
         <v>7574</v>
       </c>
       <c r="CH113" s="16">
-        <f t="shared" si="342"/>
+        <f t="shared" si="343"/>
         <v>4753</v>
       </c>
       <c r="CI113" s="16">
-        <f t="shared" si="342"/>
+        <f t="shared" si="343"/>
         <v>4040</v>
       </c>
       <c r="CJ113" s="16">
-        <f t="shared" si="342"/>
+        <f t="shared" si="343"/>
         <v>2271</v>
       </c>
       <c r="CK113" s="16">
-        <f t="shared" si="342"/>
+        <f t="shared" si="343"/>
         <v>5447</v>
       </c>
       <c r="CL113" s="16">
@@ -28880,7 +28910,7 @@
         <v>7048</v>
       </c>
     </row>
-    <row r="115" spans="2:115" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:115" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B115" s="65" t="s">
         <v>300</v>
       </c>
@@ -29025,7 +29055,7 @@
       <c r="DJ115" s="16"/>
       <c r="DK115" s="16"/>
     </row>
-    <row r="116" spans="2:115" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:115" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B116" s="109" t="s">
         <v>505</v>
       </c>
@@ -29162,7 +29192,7 @@
       <c r="DJ116" s="16"/>
       <c r="DK116" s="16"/>
     </row>
-    <row r="117" spans="2:115" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:115" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B117" s="65" t="s">
         <v>301</v>
       </c>
@@ -29304,7 +29334,7 @@
       <c r="DJ117" s="16"/>
       <c r="DK117" s="16"/>
     </row>
-    <row r="118" spans="2:115" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:115" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B118" s="65" t="s">
         <v>299</v>
       </c>
@@ -29392,35 +29422,35 @@
       <c r="CC118" s="16"/>
       <c r="CD118" s="16"/>
       <c r="CE118" s="16">
-        <f t="shared" ref="CE118:CL118" si="343">SUM(CE115:CE117)</f>
+        <f t="shared" ref="CE118:CL118" si="344">SUM(CE115:CE117)</f>
         <v>-499</v>
       </c>
       <c r="CF118" s="16">
-        <f t="shared" si="343"/>
+        <f t="shared" si="344"/>
         <v>-341</v>
       </c>
       <c r="CG118" s="16">
-        <f t="shared" si="343"/>
+        <f t="shared" si="344"/>
         <v>-369</v>
       </c>
       <c r="CH118" s="16">
-        <f t="shared" si="343"/>
+        <f t="shared" si="344"/>
         <v>-800</v>
       </c>
       <c r="CI118" s="16">
-        <f t="shared" si="343"/>
+        <f t="shared" si="344"/>
         <v>-9588</v>
       </c>
       <c r="CJ118" s="16">
-        <f t="shared" si="343"/>
+        <f t="shared" si="344"/>
         <v>-1102</v>
       </c>
       <c r="CK118" s="16">
-        <f t="shared" si="343"/>
+        <f t="shared" si="344"/>
         <v>-8256</v>
       </c>
       <c r="CL118" s="16">
-        <f t="shared" si="343"/>
+        <f t="shared" si="344"/>
         <v>-1874</v>
       </c>
       <c r="CM118" s="16"/>
@@ -29449,10 +29479,10 @@
       <c r="DJ118" s="16"/>
       <c r="DK118" s="16"/>
     </row>
-    <row r="119" spans="2:115" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:115" x14ac:dyDescent="0.25">
       <c r="CI119" s="16"/>
     </row>
-    <row r="120" spans="2:115" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:115" x14ac:dyDescent="0.25">
       <c r="B120" s="62" t="s">
         <v>51</v>
       </c>
@@ -29492,7 +29522,7 @@
         <v>-3762</v>
       </c>
     </row>
-    <row r="121" spans="2:115" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:115" x14ac:dyDescent="0.25">
       <c r="B121" s="62" t="s">
         <v>302</v>
       </c>
@@ -29530,7 +29560,7 @@
         <v>-2752</v>
       </c>
     </row>
-    <row r="122" spans="2:115" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:115" x14ac:dyDescent="0.25">
       <c r="B122" s="62" t="s">
         <v>306</v>
       </c>
@@ -29568,7 +29598,7 @@
         <v>-358</v>
       </c>
     </row>
-    <row r="123" spans="2:115" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:115" x14ac:dyDescent="0.25">
       <c r="B123" s="62" t="s">
         <v>307</v>
       </c>
@@ -29606,7 +29636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="2:115" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:115" x14ac:dyDescent="0.25">
       <c r="B124" s="62" t="s">
         <v>294</v>
       </c>
@@ -29641,7 +29671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="2:115" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:115" x14ac:dyDescent="0.25">
       <c r="B125" s="62" t="s">
         <v>12</v>
       </c>
@@ -29679,7 +29709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="2:115" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:115" x14ac:dyDescent="0.25">
       <c r="B126" s="62" t="s">
         <v>305</v>
       </c>
@@ -29688,39 +29718,39 @@
         <v>-6972</v>
       </c>
       <c r="CE126" s="16">
-        <f t="shared" ref="CE126:CL126" si="344">SUM(CE120:CE125)</f>
+        <f t="shared" ref="CE126:CL126" si="345">SUM(CE120:CE125)</f>
         <v>-6192</v>
       </c>
       <c r="CF126" s="16">
-        <f t="shared" si="344"/>
+        <f t="shared" si="345"/>
         <v>-3920</v>
       </c>
       <c r="CG126" s="16">
-        <f t="shared" si="344"/>
+        <f t="shared" si="345"/>
         <v>-2661</v>
       </c>
       <c r="CH126" s="16">
-        <f t="shared" si="344"/>
+        <f t="shared" si="345"/>
         <v>-4449</v>
       </c>
       <c r="CI126" s="16">
-        <f t="shared" si="344"/>
+        <f t="shared" si="345"/>
         <v>10819</v>
       </c>
       <c r="CJ126" s="16">
-        <f t="shared" si="344"/>
+        <f t="shared" si="345"/>
         <v>-6097</v>
       </c>
       <c r="CK126" s="16">
-        <f t="shared" si="344"/>
+        <f t="shared" si="345"/>
         <v>-3072</v>
       </c>
       <c r="CL126" s="16">
-        <f t="shared" si="344"/>
+        <f t="shared" si="345"/>
         <v>-6861</v>
       </c>
     </row>
-    <row r="127" spans="2:115" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:115" x14ac:dyDescent="0.25">
       <c r="B127" s="62" t="s">
         <v>304</v>
       </c>
@@ -29758,7 +29788,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="128" spans="2:115" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:115" x14ac:dyDescent="0.25">
       <c r="B128" s="62" t="s">
         <v>303</v>
       </c>
@@ -29767,35 +29797,35 @@
         <v>-3648</v>
       </c>
       <c r="CE128" s="16">
-        <f t="shared" ref="CE128:CL128" si="345">+CE127+CE126+CE118+CE113</f>
+        <f t="shared" ref="CE128:CL128" si="346">+CE127+CE126+CE118+CE113</f>
         <v>-2490</v>
       </c>
       <c r="CF128" s="16">
-        <f t="shared" si="345"/>
+        <f t="shared" si="346"/>
         <v>2048</v>
       </c>
       <c r="CG128" s="16">
-        <f t="shared" si="345"/>
+        <f t="shared" si="346"/>
         <v>4528</v>
       </c>
       <c r="CH128" s="16">
-        <f t="shared" si="345"/>
+        <f t="shared" si="346"/>
         <v>-473</v>
       </c>
       <c r="CI128" s="16">
-        <f t="shared" si="345"/>
+        <f t="shared" si="346"/>
         <v>5253</v>
       </c>
       <c r="CJ128" s="16">
-        <f t="shared" si="345"/>
+        <f t="shared" si="346"/>
         <v>-4937</v>
       </c>
       <c r="CK128" s="16">
-        <f t="shared" si="345"/>
+        <f t="shared" si="346"/>
         <v>-5873</v>
       </c>
       <c r="CL128" s="16">
-        <f t="shared" si="345"/>
+        <f t="shared" si="346"/>
         <v>-1733</v>
       </c>
     </row>
@@ -29816,19 +29846,19 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="102" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="102" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="102"/>
+    <col min="2" max="2" width="10.26953125" style="102" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="102"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="102" t="s">
         <v>146</v>
       </c>
@@ -29836,7 +29866,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="102" t="s">
         <v>189</v>
       </c>
@@ -29844,7 +29874,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="102" t="s">
         <v>27</v>
       </c>
@@ -29852,7 +29882,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="102" t="s">
         <v>33</v>
       </c>
@@ -29860,7 +29890,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="102" t="s">
         <v>53</v>
       </c>
@@ -29868,7 +29898,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="104" t="s">
         <v>286</v>
       </c>
@@ -29876,7 +29906,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="102" t="s">
         <v>36</v>
       </c>
@@ -29899,20 +29929,20 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>75</v>
       </c>
@@ -29920,7 +29950,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>76</v>
       </c>
@@ -29928,7 +29958,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="45" t="s">
         <v>225</v>
       </c>
@@ -29936,7 +29966,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="26" t="s">
         <v>33</v>
       </c>
@@ -29944,7 +29974,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="45" t="s">
         <v>53</v>
       </c>
@@ -29952,7 +29982,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="104" t="s">
         <v>286</v>
       </c>
@@ -29960,7 +29990,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="45" t="s">
         <v>36</v>
       </c>
@@ -29968,7 +29998,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="45" t="s">
         <v>227</v>
       </c>
@@ -29990,19 +30020,19 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="41"/>
+    <col min="1" max="1" width="5.453125" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" style="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="41" t="s">
         <v>146</v>
       </c>
@@ -30010,7 +30040,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="41" t="s">
         <v>189</v>
       </c>
@@ -30018,7 +30048,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="41" t="s">
         <v>33</v>
       </c>
@@ -30026,7 +30056,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="111" t="s">
         <v>53</v>
       </c>
@@ -30034,115 +30064,115 @@
         <v>648</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B6" s="41" t="s">
         <v>27</v>
       </c>
       <c r="C6"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" s="89" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" s="41" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" s="41" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" s="41" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="111" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="B12" s="111"/>
       <c r="C12" s="86" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="111"/>
       <c r="C13" s="111" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="111"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="B15" s="111"/>
       <c r="C15" s="86" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="B16" s="111"/>
       <c r="C16" s="86"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" ht="13" x14ac:dyDescent="0.3">
       <c r="B17" s="111"/>
       <c r="C17" s="86" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" ht="13" x14ac:dyDescent="0.3">
       <c r="B18" s="111"/>
       <c r="C18" s="86"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" ht="13" x14ac:dyDescent="0.3">
       <c r="B19" s="111"/>
       <c r="C19" s="86" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" ht="13" x14ac:dyDescent="0.3">
       <c r="B20" s="111"/>
       <c r="C20" s="86" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" ht="13" x14ac:dyDescent="0.3">
       <c r="B21" s="111"/>
       <c r="C21" s="86"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="111"/>
       <c r="C22" s="41" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C23" s="56" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C24" s="56" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C25" s="56" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C26" s="56" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C27" s="56" t="s">
         <v>258</v>
       </c>
@@ -30163,19 +30193,19 @@
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="62" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="62" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="62"/>
+    <col min="3" max="16384" width="9.1796875" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="62" t="s">
         <v>146</v>
       </c>
@@ -30183,7 +30213,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="62" t="s">
         <v>189</v>
       </c>
@@ -30191,7 +30221,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="62" t="s">
         <v>27</v>
       </c>
@@ -30199,17 +30229,17 @@
         <v>619</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" s="104" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" s="111" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="62" t="s">
         <v>286</v>
       </c>
@@ -30217,7 +30247,7 @@
         <v>33581</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="62" t="s">
         <v>33</v>
       </c>
@@ -30225,7 +30255,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="62" t="s">
         <v>288</v>
       </c>
@@ -30247,19 +30277,19 @@
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="41"/>
+    <col min="2" max="2" width="12.1796875" style="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="41" t="s">
         <v>146</v>
       </c>
@@ -30267,7 +30297,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="41" t="s">
         <v>189</v>
       </c>
@@ -30275,7 +30305,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="41" t="s">
         <v>33</v>
       </c>
@@ -30283,7 +30313,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="41" t="s">
         <v>27</v>
       </c>
@@ -30291,7 +30321,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="89" t="s">
         <v>36</v>
       </c>
@@ -30299,7 +30329,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="104" t="s">
         <v>286</v>
       </c>
@@ -30307,22 +30337,22 @@
         <v>495</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="89" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C9" s="86" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C12" s="86" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C15" s="86" t="s">
         <v>388</v>
       </c>
@@ -30341,19 +30371,19 @@
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="85" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="85" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="85"/>
+    <col min="2" max="2" width="13.1796875" style="85" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="85"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="85" t="s">
         <v>75</v>
       </c>
@@ -30361,7 +30391,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="85" t="s">
         <v>76</v>
       </c>
@@ -30369,7 +30399,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="89" t="s">
         <v>27</v>
       </c>
@@ -30377,7 +30407,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="102" t="s">
         <v>465</v>
       </c>
@@ -30385,7 +30415,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="111" t="s">
         <v>36</v>
       </c>
@@ -30393,7 +30423,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="111" t="s">
         <v>185</v>
       </c>
@@ -30401,7 +30431,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="111" t="s">
         <v>33</v>
       </c>
@@ -30409,35 +30439,35 @@
         <v>557</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="85" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C10" s="86" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C15" s="86" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" s="89" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C19" s="86"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C20" s="86" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="111" t="s">
         <v>558</v>
       </c>
